--- a/Theme_4_Les donnees_structurees_et_leur_traitement/Assets/contacts.xlsx
+++ b/Theme_4_Les donnees_structurees_et_leur_traitement/Assets/contacts.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincentlesieux/SNT-git/Thème 4_Les données structurées et leur traitement/Assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincentlesieux/Documents/Boulot/Computing/SNT/Theme_4_Les donnees_structurees_et_leur_traitement/Assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FFA293-B464-0347-A7D3-7AD792F34067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{82B7CDD2-B49A-804E-8969-34FEB5091CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{42C48E02-89ED-8A46-A271-FBACB3D5902B}"/>
+    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{253BA2CD-6875-524B-A172-4E60E74F2848}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="contacts" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,6 +26,9 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Nom</t>
   </si>
@@ -50,10 +53,22 @@
     <t>Date de naissance</t>
   </si>
   <si>
+    <t>Ville</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
     <t>Emma</t>
   </si>
   <si>
-    <t>Green</t>
+    <t>06 36 62 23 66</t>
+  </si>
+  <si>
+    <t>emma.green@free.fr</t>
+  </si>
+  <si>
+    <t>Lyon</t>
   </si>
   <si>
     <t>Gascon</t>
@@ -62,59 +77,62 @@
     <t>Robert</t>
   </si>
   <si>
+    <t>06 64 58 54 36</t>
+  </si>
+  <si>
+    <t>robert.gascon@wanadoo.fr</t>
+  </si>
+  <si>
+    <t>Orléans</t>
+  </si>
+  <si>
     <t>Villefort</t>
   </si>
   <si>
     <t>Valentine</t>
   </si>
   <si>
+    <t>06 82 25 36 84</t>
+  </si>
+  <si>
+    <t>valentine.villefort@gmail.com</t>
+  </si>
+  <si>
+    <t>Tours</t>
+  </si>
+  <si>
     <t>Poclain</t>
   </si>
   <si>
     <t>Alexandre</t>
   </si>
   <si>
-    <t>emma.green@free.fr</t>
-  </si>
-  <si>
-    <t>robert.gascon@wanadoo.fr</t>
-  </si>
-  <si>
-    <t>valentine.villefort@gmail.com</t>
-  </si>
-  <si>
-    <t>Ville</t>
-  </si>
-  <si>
-    <t>Lyon</t>
-  </si>
-  <si>
-    <t>Orléans</t>
-  </si>
-  <si>
-    <t>Tours</t>
+    <t>06 25 39 26 37</t>
+  </si>
+  <si>
+    <t>alexandre.poclai@orange.fr</t>
   </si>
   <si>
     <t>Nancy</t>
-  </si>
-  <si>
-    <t>alexandre.poclai@orange.fr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0#&quot; &quot;##&quot; &quot;##&quot; &quot;##&quot; &quot;##"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -122,15 +140,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
-      <color theme="10"/>
+      <color rgb="FF0066CC"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -150,19 +166,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -189,39 +203,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -273,7 +287,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -384,13 +398,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -399,6 +406,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -463,147 +477,147 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB4D6CF-774B-4D46-9B04-9CF9B7259372}">
-  <dimension ref="C4:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B578B6-F2D4-824D-9F15-465CC63CD837}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="5" max="5" width="19.6640625" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C4" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4">
+        <v>37392</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4">
+        <v>32181</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="4">
+        <v>34505</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E5" s="4">
-        <v>636622366</v>
+        <v>22323</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="3">
-        <v>37392</v>
-      </c>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="4">
-        <v>664585436</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="3">
-        <v>32181</v>
-      </c>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="4">
-        <v>682253684</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="3">
-        <v>34505</v>
-      </c>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="4">
-        <v>625392637</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="3">
-        <v>22323</v>
-      </c>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="E11" s="4"/>
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F5" r:id="rId1" xr:uid="{D1955B02-9AFC-E542-BD30-DAD2497A5708}"/>
-    <hyperlink ref="F6" r:id="rId2" xr:uid="{53D87D16-28FF-804F-8B35-6548D6F3A8B7}"/>
-    <hyperlink ref="F7" r:id="rId3" xr:uid="{77B07C01-44AF-704F-8FC6-E81FAD203EA4}"/>
-    <hyperlink ref="F8" r:id="rId4" xr:uid="{EBD6FBA4-5C59-8A47-A474-2346738DBE86}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>